--- a/biology/Médecine/Cancer_colorectal_héréditaire_sans_polypose/Cancer_colorectal_héréditaire_sans_polypose.xlsx
+++ b/biology/Médecine/Cancer_colorectal_héréditaire_sans_polypose/Cancer_colorectal_héréditaire_sans_polypose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cancer colorectal héréditaire sans polypose ou syndrome de Lynch est une susceptibilité augmentée de développer un cancer du côlon et un cancer de l'endomètre, de l'ovaire, de l'estomac, de l'intestin grêle, du foie, de l'appareil urinaire supérieur, du cerveau et de la peau.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 % des cancers colorectaux sont des formes familiales avec anomalie génétique identifiée (15% de formes familiales au total, dont 10% sans gène identifié), soit par polypose adénomateuse familiale (1%), soit par syndrome de cancer colique sans polypose (syndrome de Lynch) (4%). La probabilité de développer un cancer de ce type chez un porteur d'une mutation sur le gène MLH1 (en) ou MSH2 (en) est comprise entre 35 et 50 % avant 70 ans[1]. Elle est de l'ordre de 20 % chez les porteurs d'une mutation sur le MSH6[2].
-Le syndrome de Lynch est également la cause la plus fréquente des formes familiales de cancer de l'endomètre (corps de l'utérus) avec un risque de survenue compris entre 40 et 60 % de ce type de cancer durant la vie, chez ces patientes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 % des cancers colorectaux sont des formes familiales avec anomalie génétique identifiée (15% de formes familiales au total, dont 10% sans gène identifié), soit par polypose adénomateuse familiale (1%), soit par syndrome de cancer colique sans polypose (syndrome de Lynch) (4%). La probabilité de développer un cancer de ce type chez un porteur d'une mutation sur le gène MLH1 (en) ou MSH2 (en) est comprise entre 35 et 50 % avant 70 ans. Elle est de l'ordre de 20 % chez les porteurs d'une mutation sur le MSH6.
+Le syndrome de Lynch est également la cause la plus fréquente des formes familiales de cancer de l'endomètre (corps de l'utérus) avec un risque de survenue compris entre 40 et 60 % de ce type de cancer durant la vie, chez ces patientes.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les causes du syndrome HNPCC sont génétiques. elles sont dues à des mutations sur les gènes MMR (Mismatch repair), c’est-à-dire les gènes impliqués dans la réparation des erreurs de réplication de l'ADN.
 Ces gènes sont :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte d'un syndrome HNPCC ne peut être corrélée qu'à un dépistage génétique en coordination avec l'étude du passé médical familial.
 Le diagnostic clinique, hors déclaration de cancer avéré, ne peut se faire que par coloscopie. L'ajout d'un colorant carmin d'indigo diminue le risque pour le praticien de passer à côté d'une tumeur HNPCC.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,13 +630,15 @@
           <t>Traitement &amp; prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas de traitement actuel pour le syndrome HNPCC. Seule la prévention permet de détecter précocement le cancer du côlon.
 Une coloscopie avec un marquage à l'indigo carmin est suffisant si elle est pratiquée tous les 2 ans.
 La coloration à l'indigo carmin permet une détection plus aisée des polypes plan.
 Plusieurs voies de recherche pour des traitements sont en cours d'études, tels que le vaccins contre le HNPCC.
-L'aspirine ne semble pas avoir d'effet préventif à court terme (moins de 2 ans)[6], mais au delà de cinq ans, elle permet une diminution significative du risque de survenue d'un cancer colique[7].
+L'aspirine ne semble pas avoir d'effet préventif à court terme (moins de 2 ans), mais au delà de cinq ans, elle permet une diminution significative du risque de survenue d'un cancer colique.
 Quant aux traitements du cancer du côlon, plusieurs stratégies sont possibles :
 5FU : (5 fluorouracile): administré dans 90 % des cas de cancer colorectal. Inefficace en l'absence d'un système MMR normal
 Cisplatine : inefficace en l'absence d'un système MMR normal
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Diagnostic génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'un cancer du côlon avec un passé familial évident, la tumeur retirée du patient est alors découpée en fines couches puis fixée sur une lame en paraffine. Les coupes peuvent être ainsi conservées pendant plusieurs années. De ces lames, on peut extraire l'ADN tumoral des cellules tumorales. Sur cet ADN, en premier lieu, on étudie la stabilité de microsatellites définis selon des critères internationaux.
 Il existe 2 statuts possibles :
@@ -686,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cancer_colorectal_h%C3%A9r%C3%A9ditaire_sans_polypose</t>
+          <t>Cancer_colorectal_héréditaire_sans_polypose</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -704,10 +726,12 @@
           <t>Autres atteintes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femmes porteuses de ce syndrome ont un risque de 20 à 60 % de développer un cancer de l'endomètre avec un âge moyen de diagnostic de 46 ans. Le cancer de l'ovaire apparaît dans un tiers des cas avant 40 ans.
-Il existe également un risque multiplié par 9 de développer un cancer du pancréas[8].
+Il existe également un risque multiplié par 9 de développer un cancer du pancréas.
 </t>
         </is>
       </c>
